--- a/app/files/expenses.xlsx
+++ b/app/files/expenses.xlsx
@@ -413,14 +413,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-МЦПБ ООО</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ТД-1140/11/99С-119561 от 30.12.2011</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14975</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-МЦПБ ООО</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15110720/КН-01/20 от 31.01.2020</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>302512</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>КБ И БО МУП</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241-ТКО/2021/КН-58/21 от 08.07.2021</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/app/files/expenses.xlsx
+++ b/app/files/expenses.xlsx
@@ -413,57 +413,2172 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>№ п/п</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Контрагент</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Договор</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Сумма за год</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ЛУКОЙЛ-МЦПБ ООО</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ТД-1140/11/99С-119561 от 30.12.2011</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>14975</v>
+      <c r="E2" t="n">
+        <v>605737</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>ЛУКОЙЛ-МЦПБ ООО</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>15110720/КН-01/20 от 31.01.2020</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>302512</v>
+      <c r="E3" t="n">
+        <v>11780370</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-МЦПБ ООО</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19471121 от 01.04.2021</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>24849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-МЦПБ ООО</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21С3045/КН-83/21/23621022 от 21.12.2021</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>287184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>КБ И БО МУП</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>241-ТКО/2021/КН-58/21 от 08.07.2021</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>293</v>
+      <c r="E6" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ВОДОКАНАЛ МУП</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4964/КН-61/20 от 05.11.2020</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ЭКОЮГ ООО</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>88 ЮН/21/КН-37/21 от 11.01.2021</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>СЛУЖБА  ЗАКАЗЧИКА ПО ЖКУ  ПОС. ИСКАТЕЛЕЙ МУП</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КН-49/20 от 21.01.2013</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>СЛУЖБА  ЗАКАЗЧИКА ПО ЖКУ  ПОС. ИСКАТЕЛЕЙ МУП</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>КН-48/20 от 10.01.2013</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>25623</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 31.12.2021</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Счет №402/7652 от 31.01.2022</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 28.02.2022</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 31.03.2022</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 30.04.2022</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Счет №402/7652 от 31.05.2022</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Счет №402/7652 от 30.06.2022</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Счет №402/7652 от 31.07.2022</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 31.08.2022</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 30.09.2022</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Счет№402/7652 от 31.10.2022</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ФОНД СОДЕЙСТВИЯ РЕФОРМИРОВАНИЮ ЖКХ НАО НКО</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Счет №402/7652 от 30.11.2022</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ПЖКС ИМУП</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11/Тю-21/КН-55/21 от 17.06.2021</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13446</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-12-000071 от 31.12.2021</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-01-000545 от 31.01.2022</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-02-001116 от 28.02.2022</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-03-000566 от 31.03.2022</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Счет-извещение № РО-04-000009 от 30.04.2022</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-05-000572 от 31.05.2022</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-06-000576 от 30.06.2022</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-07-001069 от 31.07.2022</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-08-000693 от 31.08.2022</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-09-000691 от 30.09.2022</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Счет извещение №РО-10-000679 от 31.10.2022</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ЮГОРСКИЙ ФОНД КАПИТАЛЬНОГО РЕМОНТА</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Счет-извещение №РО-11-000685 от 30.11.2022</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Филиал АО "НЭСК" "Новороссийскэнергосбыт"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6297/КН-16/21 от 01.11.2020</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>112356</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>КОМИ ЭНЕРГОСБЫТОВАЯ КОМПАНИЯ АО</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>226064/КН-79/21 от 31.01.2021</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>881560</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-Западная Сибирь ООО</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18С3604/КН-24/18 от 26.11.2018</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>33519</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-Западная Сибирь ООО</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21С3045/КН-83/21 от 21.12.2021</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>107694</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>МОНОЛИТ ООО ЧОП</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>981-ПЦН/КН-02/21 от 01.01.2021</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>46664</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>МОНОЛИТ ООО ЧОП</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>314/КН-01/21 от 01.01.2021</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>497954</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ЕАЕ ООО</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>КН-09/18 от 27.04.2018</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1568580</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ЧИСТЫЙ ГОРОД ООО</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1510163/1/10Л/КН-0023/15 от 01.05.2015</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>750151</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>АСТРАХАНСКИЕ ТЕПЛОВЫЕ СЕТИ ООО</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2568/КН-51/20 от 01.11.2020</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>96005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ВОЛГОГРАДЭНЕРГОСБЫТ ПАО</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6033531/20/КН-52/20 от 16.11.2020</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>268406</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>АВСМЕДИЦИНА ООО</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ДМС-20/40-ЮЛ/КН-09/20 от 21.05.2020</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>155494</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Соловьева Елена Вячеславовна</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Счет б/н от 11.01.2022</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>50458</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A202100214/КН-17/21 от 26.01.2021</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>36490</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A202001221/КН-04/20 от 28.02.2020</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>535011</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A202100398/КН-20/21 от 10.02.2021</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>526964</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A202100529/КН-18/21 от 26.02.2021</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>367770</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>А202201287/КН-18/22 от 31.03.2022</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>392266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>А202201261/КН-08/22 от 28.02.2022</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>179682</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>А202201288/КН-17/22 от 31.03.2022</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1279988</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>А202201960/КН-19/22 от 28.02.2022</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>82446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-ТЕХНОЛОГИИ ООО</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>А202202843КН-21/22 от 01.01.2022</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ИНФОРМ ООО</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>А201801634/КН-07/18 от 01.02.2018</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ИНФОРМ ООО</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>А201801635/КН-08/18 от 01.02.2018</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>18818</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ИНФОРМ ООО</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A201505211/КН-0029/15 от 19.06.2015</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2927060</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ИНФОРМ ООО</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A201801631/КН-06/18 от 01.02.2018</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>209644</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>НАРЬЯН-МАРСКАЯ ЭЛЕКТРОСТАНЦИЯ ГУП НАО</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>85-2020/1/КН-45/20 от 09.11.2020</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>24705</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ДОВЕРИЕ ООО</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>21/20/КН-27/21 от 09.03.2021</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Филиал ООО "КонцессКом" "ЛКС"</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>193т/КН-55/20 от 01.12.2020</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ВЫМПЕЛКОМ ПАО</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>455144068/ТД-0749/12 от 24.09.2012</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>53852</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АГЕНТСТВО "ЛУКОМ-А-ВОЛГОГРАД" ООО </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00054.Д320/КН-37/20 от 13.10.2020</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>126549</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>КОМФОРТ ПЛЮС ООО</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>62/КН-29/20 от 26.10.2020</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>165160</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>НКК ГУП НАО</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2-2020-ППГ/КН-06/21 от 23.12.2020</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>12274</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>НКК ГУП НАО</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>59-ЮЛ ТО/КН-45/22 от 01.07.2022</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ПОК И ТС ООО УК</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1Т12-2-МКД/КН-29/21 от 12.03.2021</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>65446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>АвангардКопир ООО</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>А-2015/0616/1/КН-0027/15 от 18.06.2015</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>223399</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ПОДАРОК В КВАДРАТЕ ООО</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>887.19/КН-23/19 от 29.07.2019</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>169968</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>КОМПАНИЯ ТЕНЗОР ООО</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Лицензионный договор КН-42/20 от 09.11.2020</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Кузин Сергей Николаевич ИП</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>КН-08/20 от 01.06.2020</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2090000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Умный Склад ООО</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Счет №БЦ-195 от 03.02.2022</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ДХЛ ИНТЕРНЕШНЛ АО</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>380249307/ТД-236/07 от 09.02.2007</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>75931</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ХАЛМЕР ООО</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>П-0390418/КН-0022/15 от 13.04.2015</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>27110</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ПРОФЕССИОНАЛ ИНСТИТУТ ПОВЫШЕНИЯ КВАЛИФИКАЦИИ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>КН-06/22 от 10.02.2022</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>12333</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ПРОФЕССИОНАЛ ИНСТИТУТ ПОВЫШЕНИЯ КВАЛИФИКАЦИИ</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2021-12-08/тнд/ОПП/КН-84/21 от 08.12.2021</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ПРОФЕССИОНАЛ ИНСТИТУТ ПОВЫШЕНИЯ КВАЛИФИКАЦИИ</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022-12-08/тнд/ПБ/КН-62/22 от 08.12.2022</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>9583</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ЭКСПЕРТ ООО КФ</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>008/КН-02/22 от 12.01.2022</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Валдаев Владимир Евгеньевич (Нотариус)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Без договора</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>174815</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ИНТЕРФАКС АО</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Без договора</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>РЕГАРД МСК ООО</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>КН-49/21 от 15.06.2021</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>733227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Комус ООО</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5/КН-03/19 от 31.01.2019</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>225461</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ПИКСЕЛ КОМПЬЮТЕРНАЯ ТЕХНИКА ООО</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Счет№КТ-00000092 от 04.03.2022</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1330833</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>НОВОРОССИЙСКГОРГАЗ АО</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1154/КН-36/21 от 16.11.2020</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>16431</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ГАЗПРОМ МЕЖРЕГИОНГАЗ КРАСНОДАР ООО</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>25-4-00555/22/КН-11/22 от 25.02.2022</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>МКПЦ ООО</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ц/1-224/21-А/КН-72/21 от 10.09.2021</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>МАРКЕТ ООО</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Счет №1990 от 11.05.2022</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>МАРКЕТ ООО</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Счет №2508 от 16.06.2022</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>МАРКЕТ ООО</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Счет №9233 от 01.11.2022</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-Пермь ООО</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>19z1801/ПИ-09/19/КН-77/21 от 01.10.2019</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ЛУКОЙЛ-Пермь ООО</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>22z1515/КН-56/22 от 01.09.2022</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ЭКОДОМ ООО</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/К.Н.ХОЛДИНГ/9/КН-40/22 от 01.05.2022</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>29670</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>БИЗНЕС ПОДАРКИ ООО</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Дог №21741/КН-70/21 от 03.09.2021</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>СТРЕМЛЕНИЕ ООО</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>КН-35/22 от 09.06.2022</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ЛАНИТ ТРЕЙДИНГ ООО</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>А202203272/КН-46/22 от 06.07.2022</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>309366</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Нарьян-Марское МУ ПОК и ТС</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>319-КВ/КН-42/22 от 01.06.2022</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>24874</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ПРОЛЕТАРСКИЙ АНО ЦДПО</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10.01.КО/КН-47/22 от 15.08.2022</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ОА ШЕРИФ-М ООО</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>981-ПЦН/КН-39/22 от 01.07.2022</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>23332</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ОА ШЕРИФ-М ООО</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>12/КН-38/22 от 01.07.2022</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>252051</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Потапенко Евгений Борисович</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Счет№234 от 09.09.2022</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Потапенко Евгений Борисович</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Счет№234 от 09.09.2022(актив не блоее 100 000 р)</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>12916</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ВОДОКАНАЛ ООО</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Счет №2137 от 21.09.2022</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>22131</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>СЕРТУМ-ПРО ООО</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>90710337/21/КН-25/21 от 31.01.2021</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Федоров Илья Александрович</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>ДОГ IAF-KNH-22-09-0116/КН-49/22 от 14.09.2022</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>С.Д.М ГРУПП ООО</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>КН-50/22 от 26.09.2022</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>137414</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Максимова Ольга Викторовна</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Счет№ЦБ-2931 от 29.09.2022</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>18059</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ГОРЭЛЕКТРОСЕТЬ МУП Г. АСТРАХАНИ</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>127/КН-51/22 от 04.10.2022</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>96037</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ЛУКОМ-А ООО ТЕХЦЕНТР</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>КН-44/22 от 10.08.2022</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>57752</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ГК КВАН ООО</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Счет№04/18.10.22 от 19.10.2022</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>47831</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Богданова Елена Анатольевна</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>КН-52/22 от 10.10.2022</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ПС СТ ООО</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>КН-54/20 от 23.11.2020</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>МЕДИС ООО</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>21/09/22-КН-48/22 от 08.09.2022</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>НОВОРОССИЙСКОЕ ПРЕДПРИЯТИЕ  ПОЖЗАЩИТА ООО</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Счет№413 от 25.11.2022</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ЧТО ДЕЛАТЬ КВАЛИФИКАЦИЯ ООО</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>106654-О/КН-60/22 от 24.11.2022</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>КОНКОРД М ООО</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>КН-54/22 от 20.10.2022</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>16933</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Токарев Антон Викторович</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Счет №9089946611 от 14.12.2022</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ксенофонтов Андрей Николаевич</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Счет №7 от 19.12.2022</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>7083</v>
       </c>
     </row>
   </sheetData>

--- a/app/files/expenses.xlsx
+++ b/app/files/expenses.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3651</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6524</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="9">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1047</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="12">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1090</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1090</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1090</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>733</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="21">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>707</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2301</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="25">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2419</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="26">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2170</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="28">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="29">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="30">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="31">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="32">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="33">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="34">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="35">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2103</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="36">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46664</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="41">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>497954</v>
+        <v>597545</v>
       </c>
     </row>
     <row r="42">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>155494</v>
+        <v>186600</v>
       </c>
     </row>
     <row r="47">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>50458</v>
+        <v>60550</v>
       </c>
     </row>
     <row r="48">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>169968</v>
+        <v>203962</v>
       </c>
     </row>
     <row r="72">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>9583</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="80">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5775</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="81">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>9916</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="100">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23332</v>
+        <v>26833</v>
       </c>
     </row>
     <row r="101">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>252051</v>
+        <v>302461</v>
       </c>
     </row>
     <row r="102">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>12916</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="104">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22131</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="105">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18059</v>
+        <v>21671</v>
       </c>
     </row>
     <row r="109">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="113">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3733</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="115">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10500</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="117">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>112500</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="119">
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>7083</v>
+        <v>8500</v>
       </c>
     </row>
   </sheetData>
